--- a/model_beef/postprocessing/20230106_final_heating_demands.xlsx
+++ b/model_beef/postprocessing/20230106_final_heating_demands.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ifu-esd-srv-4.ethz.ch\shinder\0_work\1_Models\2_building\2a_integrations\model_building\building-model\model_beef\postprocessing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\0_work\1_Models\2_building\2a_integrations\model_building\building-model\model_beef\postprocessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23535" windowHeight="8235" tabRatio="673" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="9900" tabRatio="673" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="U Value &amp; Energy demand results" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="scenarios-case study" sheetId="5" r:id="rId4"/>
     <sheet name="scenarios-final" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1192,6 +1192,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1209,45 +1248,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4115,51 +4115,51 @@
       <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" style="27" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" style="27" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" style="27" customWidth="1"/>
-    <col min="15" max="52" width="9.140625" style="27"/>
+    <col min="1" max="1" width="8.1796875" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" customWidth="1"/>
+    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="9" max="9" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" style="27" customWidth="1"/>
+    <col min="11" max="11" width="21.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.26953125" style="27" customWidth="1"/>
+    <col min="13" max="13" width="16.54296875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" style="27" customWidth="1"/>
+    <col min="15" max="52" width="9.1796875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="138"/>
-      <c r="B1" s="138"/>
-      <c r="C1" s="139" t="s">
+    <row r="1" spans="1:52" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="132"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="133" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="135" t="s">
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="137" t="s">
+      <c r="I1" s="131" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="132" t="s">
+      <c r="J1" s="126" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="134"/>
-    </row>
-    <row r="2" spans="1:52" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="138"/>
-      <c r="B2" s="138"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="128"/>
+    </row>
+    <row r="2" spans="1:52" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="132"/>
+      <c r="B2" s="132"/>
       <c r="C2" s="96" t="s">
         <v>0</v>
       </c>
@@ -4175,8 +4175,8 @@
       <c r="G2" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
       <c r="J2" s="97" t="s">
         <v>117</v>
       </c>
@@ -4231,8 +4231,8 @@
       <c r="AY2" s="99"/>
       <c r="AZ2" s="99"/>
     </row>
-    <row r="3" spans="1:52" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="141" t="s">
+    <row r="3" spans="1:52" s="69" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="135" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="66" t="s">
@@ -4263,8 +4263,8 @@
       <c r="M3" s="79"/>
       <c r="N3" s="88"/>
     </row>
-    <row r="4" spans="1:52" s="69" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="142"/>
+    <row r="4" spans="1:52" s="69" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="136"/>
       <c r="B4" s="70" t="s">
         <v>21</v>
       </c>
@@ -4301,8 +4301,8 @@
       </c>
       <c r="N4" s="93"/>
     </row>
-    <row r="5" spans="1:52" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="141" t="s">
+    <row r="5" spans="1:52" s="69" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="135" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="66" t="s">
@@ -4335,8 +4335,8 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="6" spans="1:52" s="69" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="142"/>
+    <row r="6" spans="1:52" s="69" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="136"/>
       <c r="B6" s="70" t="s">
         <v>21</v>
       </c>
@@ -4375,8 +4375,8 @@
       </c>
       <c r="N6" s="83"/>
     </row>
-    <row r="7" spans="1:52" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="141" t="s">
+    <row r="7" spans="1:52" s="69" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="135" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="66" t="s">
@@ -4407,8 +4407,8 @@
       <c r="M7" s="103"/>
       <c r="N7" s="80"/>
     </row>
-    <row r="8" spans="1:52" s="69" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="142"/>
+    <row r="8" spans="1:52" s="69" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A8" s="136"/>
       <c r="B8" s="70" t="s">
         <v>21</v>
       </c>
@@ -4449,8 +4449,8 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="9" spans="1:52" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="124" t="s">
+    <row r="9" spans="1:52" s="69" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="137" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="66" t="s">
@@ -4481,8 +4481,8 @@
       <c r="M9" s="103"/>
       <c r="N9" s="80"/>
     </row>
-    <row r="10" spans="1:52" s="69" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="125"/>
+    <row r="10" spans="1:52" s="69" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A10" s="138"/>
       <c r="B10" s="70" t="s">
         <v>21</v>
       </c>
@@ -4519,8 +4519,8 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="11" spans="1:52" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="124" t="s">
+    <row r="11" spans="1:52" s="69" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="137" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="66" t="s">
@@ -4551,8 +4551,8 @@
       <c r="M11" s="103"/>
       <c r="N11" s="80"/>
     </row>
-    <row r="12" spans="1:52" s="69" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="125"/>
+    <row r="12" spans="1:52" s="69" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A12" s="138"/>
       <c r="B12" s="70" t="s">
         <v>21</v>
       </c>
@@ -4591,8 +4591,8 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:52" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="128" t="s">
+    <row r="13" spans="1:52" s="49" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="141" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="108" t="s">
@@ -4623,8 +4623,8 @@
       <c r="M13" s="113"/>
       <c r="N13" s="114"/>
     </row>
-    <row r="14" spans="1:52" s="49" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="129"/>
+    <row r="14" spans="1:52" s="49" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14" s="142"/>
       <c r="B14" s="115" t="s">
         <v>8</v>
       </c>
@@ -4665,8 +4665,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:52" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="124" t="s">
+    <row r="15" spans="1:52" s="69" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="137" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="66" t="s">
@@ -4697,8 +4697,8 @@
       <c r="M15" s="103"/>
       <c r="N15" s="80"/>
     </row>
-    <row r="16" spans="1:52" s="69" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="125"/>
+    <row r="16" spans="1:52" s="69" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="138"/>
       <c r="B16" s="70" t="s">
         <v>21</v>
       </c>
@@ -4737,8 +4737,8 @@
       </c>
       <c r="N16" s="83"/>
     </row>
-    <row r="17" spans="1:52" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="124" t="s">
+    <row r="17" spans="1:52" s="69" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="137" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="66" t="s">
@@ -4769,8 +4769,8 @@
       <c r="M17" s="103"/>
       <c r="N17" s="80"/>
     </row>
-    <row r="18" spans="1:52" s="69" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="125"/>
+    <row r="18" spans="1:52" s="69" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A18" s="138"/>
       <c r="B18" s="70" t="s">
         <v>21</v>
       </c>
@@ -4811,8 +4811,8 @@
         <v>0.79499999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:52" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="126" t="s">
+    <row r="19" spans="1:52" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="139" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="60" t="s">
@@ -4881,8 +4881,8 @@
       <c r="AY19" s="27"/>
       <c r="AZ19" s="27"/>
     </row>
-    <row r="20" spans="1:52" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="127"/>
+    <row r="20" spans="1:52" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="140"/>
       <c r="B20" s="62" t="s">
         <v>21</v>
       </c>
@@ -4892,11 +4892,11 @@
       <c r="D20" s="62">
         <v>3203</v>
       </c>
-      <c r="E20" s="130" t="s">
+      <c r="E20" s="124" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="130"/>
-      <c r="G20" s="131"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="125"/>
       <c r="H20" s="72"/>
       <c r="I20" s="64">
         <v>2.3115541589915846E-4</v>
@@ -4955,8 +4955,8 @@
       <c r="AY20" s="27"/>
       <c r="AZ20" s="27"/>
     </row>
-    <row r="21" spans="1:52" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="124" t="s">
+    <row r="21" spans="1:52" s="69" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="137" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="66" t="s">
@@ -4987,8 +4987,8 @@
       <c r="M21" s="103"/>
       <c r="N21" s="80"/>
     </row>
-    <row r="22" spans="1:52" s="69" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="125"/>
+    <row r="22" spans="1:52" s="69" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A22" s="138"/>
       <c r="B22" s="70" t="s">
         <v>21</v>
       </c>
@@ -5027,8 +5027,8 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:52" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="124" t="s">
+    <row r="23" spans="1:52" s="69" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="137" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="66" t="s">
@@ -5059,8 +5059,8 @@
       <c r="M23" s="103"/>
       <c r="N23" s="80"/>
     </row>
-    <row r="24" spans="1:52" s="69" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="125"/>
+    <row r="24" spans="1:52" s="69" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A24" s="138"/>
       <c r="B24" s="70" t="s">
         <v>21</v>
       </c>
@@ -5101,8 +5101,8 @@
         <v>1.3466666666666667</v>
       </c>
     </row>
-    <row r="25" spans="1:52" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="126" t="s">
+    <row r="25" spans="1:52" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="139" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="60" t="s">
@@ -5171,8 +5171,8 @@
       <c r="AY25" s="27"/>
       <c r="AZ25" s="27"/>
     </row>
-    <row r="26" spans="1:52" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="127"/>
+    <row r="26" spans="1:52" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A26" s="140"/>
       <c r="B26" s="62" t="s">
         <v>21</v>
       </c>
@@ -5251,81 +5251,89 @@
       <c r="AY26" s="27"/>
       <c r="AZ26" s="27"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.35">
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C35">
         <v>0.38966822533956802</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C37">
         <v>1.4416146083613647E-4</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C39">
         <v>7.8933043004899298E-2</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C45">
         <v>0.26548672566371684</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C47" s="27">
         <v>0.27027027027027029</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C48" s="27"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C49" s="27">
         <v>7.317073170731707E-5</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C50" s="27"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C51" s="27">
         <v>2.3115541589915846E-4</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C52" s="27"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C53" s="27"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C54" s="27"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C55" s="27">
         <v>0.57991513437057995</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C56" s="27"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C57" s="27">
         <v>8.516436722875149E-5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="H1:H2"/>
@@ -5336,14 +5344,6 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5357,31 +5357,31 @@
   </sheetPr>
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.26953125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="95"/>
       <c r="B6" s="95" t="s">
         <v>130</v>
@@ -5396,7 +5396,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="95" t="s">
         <v>23</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>80.59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="95" t="s">
         <v>24</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>230.77</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="95" t="s">
         <v>25</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>104.76</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="95" t="s">
         <v>26</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>177.36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="95" t="s">
         <v>27</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>68.55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="95" t="s">
         <v>29</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>42.61</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="95" t="s">
         <v>30</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>119.39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="95" t="s">
         <v>32</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>159.12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="95" t="s">
         <v>33</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>170.87</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="95" t="s">
         <v>34</v>
       </c>
@@ -5553,14 +5553,14 @@
         <v>107.83</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="122"/>
       <c r="B17" s="122"/>
       <c r="C17" s="122"/>
       <c r="D17" s="122"/>
       <c r="E17" s="122"/>
     </row>
-    <row r="18" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="95"/>
       <c r="B18" s="95" t="s">
         <v>130</v>
@@ -5575,7 +5575,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="95" t="s">
         <v>23</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>1.3431666666666666</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="95" t="s">
         <v>24</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>3.846166666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="95" t="s">
         <v>25</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>1.746</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="95" t="s">
         <v>26</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>2.9560000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="95" t="s">
         <v>27</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>1.1424999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="95" t="s">
         <v>29</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>0.71016666666666661</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="95" t="s">
         <v>30</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>1.9898333333333333</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="95" t="s">
         <v>32</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>2.6520000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="95" t="s">
         <v>33</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>2.8478333333333334</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="95" t="s">
         <v>34</v>
       </c>
@@ -5785,9 +5785,9 @@
         <v>1.7971666666666666</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -5823,7 +5823,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>9.3388429752066029E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>0.35250000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>0.18163580246913577</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>0.59245283018867934</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>0.41585714285714287</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>6.6154754873006746E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>2.2627118644067801E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>1.3958333333333364E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>0.43679487179487192</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>0.33913043478260868</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="I45" t="s">
         <v>33</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>6.0365217391304347</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>1.4014234875444833</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>84.77</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -6384,7 +6384,7 @@
       <c r="K48" s="49"/>
       <c r="L48" s="49"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -6416,7 +6416,7 @@
       <c r="R49" s="49"/>
       <c r="S49" s="49"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -6448,7 +6448,7 @@
       <c r="R50" s="49"/>
       <c r="S50" s="49"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>31</v>
       </c>
@@ -6480,7 +6480,7 @@
       <c r="R51" s="49"/>
       <c r="S51" s="49"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -6512,7 +6512,7 @@
       <c r="R52" s="49"/>
       <c r="S52" s="49"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -6544,7 +6544,7 @@
       <c r="R53" s="49"/>
       <c r="S53" s="49"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -6576,7 +6576,7 @@
       <c r="R54" s="49"/>
       <c r="S54" s="49"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>32</v>
       </c>
@@ -6608,7 +6608,7 @@
       <c r="R55" s="49"/>
       <c r="S55" s="49"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -6640,7 +6640,7 @@
       <c r="R56" s="49"/>
       <c r="S56" s="49"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -6672,7 +6672,7 @@
       <c r="R57" s="49"/>
       <c r="S57" s="49"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -6704,7 +6704,7 @@
       <c r="R58" s="49"/>
       <c r="S58" s="49"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H59" s="49"/>
       <c r="I59" s="49"/>
       <c r="J59" s="49"/>
@@ -6718,7 +6718,7 @@
       <c r="R59" s="49"/>
       <c r="S59" s="49"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H60" s="49"/>
       <c r="I60" s="49"/>
       <c r="J60" s="49"/>
@@ -6732,7 +6732,7 @@
       <c r="R60" s="49"/>
       <c r="S60" s="49"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H61" s="49"/>
       <c r="I61" s="49"/>
       <c r="J61" s="49"/>
@@ -6746,7 +6746,7 @@
       <c r="R61" s="49"/>
       <c r="S61" s="49"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H62" s="49"/>
       <c r="I62" s="49"/>
       <c r="J62" s="49"/>
@@ -6760,7 +6760,7 @@
       <c r="R62" s="49"/>
       <c r="S62" s="49"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H63" s="49"/>
       <c r="I63" s="49"/>
       <c r="J63" s="49"/>
@@ -6774,7 +6774,7 @@
       <c r="R63" s="49"/>
       <c r="S63" s="49"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="H64" s="49"/>
       <c r="I64" s="49"/>
       <c r="J64" s="49"/>
@@ -6788,7 +6788,7 @@
       <c r="R64" s="49"/>
       <c r="S64" s="49"/>
     </row>
-    <row r="65" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:19" x14ac:dyDescent="0.35">
       <c r="H65" s="49"/>
       <c r="I65" s="49"/>
       <c r="J65" s="49"/>
@@ -6802,7 +6802,7 @@
       <c r="R65" s="49"/>
       <c r="S65" s="49"/>
     </row>
-    <row r="66" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:19" x14ac:dyDescent="0.35">
       <c r="H66" s="49"/>
       <c r="I66" s="49"/>
       <c r="J66" s="49"/>
@@ -6816,7 +6816,7 @@
       <c r="R66" s="49"/>
       <c r="S66" s="49"/>
     </row>
-    <row r="67" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:19" x14ac:dyDescent="0.35">
       <c r="H67" s="49"/>
       <c r="I67" s="49"/>
       <c r="J67" s="49"/>
@@ -6830,7 +6830,7 @@
       <c r="R67" s="49"/>
       <c r="S67" s="49"/>
     </row>
-    <row r="68" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:19" x14ac:dyDescent="0.35">
       <c r="H68" s="49"/>
       <c r="I68" s="49"/>
       <c r="J68" s="49"/>
@@ -6844,7 +6844,7 @@
       <c r="R68" s="49"/>
       <c r="S68" s="49"/>
     </row>
-    <row r="69" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:19" x14ac:dyDescent="0.35">
       <c r="H69" s="49"/>
       <c r="I69" s="49"/>
       <c r="J69" s="49"/>
@@ -6871,18 +6871,18 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="90.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="90.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
@@ -6906,52 +6906,52 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
         <v>67</v>
       </c>
@@ -6983,24 +6983,24 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="10"/>
-    <col min="2" max="2" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="10" customWidth="1"/>
-    <col min="4" max="5" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="10"/>
+    <col min="2" max="2" width="15.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" style="10" customWidth="1"/>
+    <col min="4" max="5" width="11.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7265625" style="10" customWidth="1"/>
     <col min="11" max="15" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7109375" style="10"/>
+    <col min="16" max="16" width="20.81640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.453125" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B1" s="16" t="s">
         <v>73</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="B2" s="11" t="s">
         <v>75</v>
@@ -7070,7 +7070,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
@@ -7142,7 +7142,7 @@
       </c>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
@@ -7180,7 +7180,7 @@
       <c r="P5" s="22"/>
       <c r="Q5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
@@ -7267,7 +7267,7 @@
       <c r="P7" s="22"/>
       <c r="Q7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
@@ -7305,7 +7305,7 @@
       <c r="P8" s="22"/>
       <c r="Q8" s="12"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
@@ -7389,7 +7389,7 @@
       <c r="P10" s="22"/>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>31</v>
       </c>
@@ -7439,7 +7439,7 @@
       <c r="P11" s="22"/>
       <c r="Q11" s="12"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>33</v>
       </c>
@@ -7545,7 +7545,7 @@
       <c r="P13" s="22"/>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>34</v>
       </c>
@@ -7595,7 +7595,7 @@
       <c r="P14" s="22"/>
       <c r="Q14" s="12"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -7611,7 +7611,7 @@
       <c r="Q20" s="12"/>
       <c r="R20" s="8"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -7627,7 +7627,7 @@
       <c r="Q21" s="12"/>
       <c r="R21" s="8"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="18"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -7643,7 +7643,7 @@
       <c r="Q22" s="12"/>
       <c r="R22" s="8"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="G23" s="8"/>
       <c r="I23" s="8"/>
@@ -7652,7 +7652,7 @@
       <c r="L23" s="8"/>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -7663,7 +7663,7 @@
       <c r="L24" s="8"/>
       <c r="R24" s="12"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="18"/>
       <c r="G25" s="12"/>
       <c r="I25" s="12"/>
@@ -7672,20 +7672,20 @@
       <c r="P25" s="24"/>
       <c r="Q25" s="32"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="18"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -7709,24 +7709,24 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="49"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="49"/>
+    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="49" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="49" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" s="49" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" s="57" t="s">
         <v>103</v>
       </c>
@@ -7750,7 +7750,7 @@
       </c>
       <c r="M2" s="27"/>
     </row>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="58"/>
       <c r="C3" s="52"/>
       <c r="D3" s="42" t="s">
@@ -7776,7 +7776,7 @@
       <c r="L3" s="151"/>
       <c r="M3" s="27"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="36" t="s">
         <v>29</v>
       </c>
@@ -7806,7 +7806,7 @@
       </c>
       <c r="M4" s="27"/>
     </row>
-    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>32</v>
       </c>
@@ -7839,8 +7839,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:13" s="49" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" s="49" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" s="44" t="s">
         <v>101</v>
       </c>
@@ -7858,7 +7858,7 @@
       <c r="J7" s="49"/>
       <c r="L7" s="27"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" s="36" t="s">
         <v>29</v>
       </c>
@@ -7875,7 +7875,7 @@
       <c r="I8" s="49"/>
       <c r="J8" s="49"/>
     </row>
-    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="38" t="s">
         <v>32</v>
       </c>
@@ -7892,12 +7892,12 @@
       <c r="I9" s="49"/>
       <c r="J9" s="49"/>
     </row>
-    <row r="10" spans="2:13" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" s="49" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
     </row>
-    <row r="12" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B12" s="59"/>
       <c r="C12" s="59" t="s">
         <v>108</v>
@@ -7912,7 +7912,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="59" t="s">
         <v>29</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="59" t="s">
         <v>32</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" s="36" t="s">
         <v>23</v>
       </c>
@@ -7976,7 +7976,7 @@
       </c>
       <c r="M17" s="27"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" s="36" t="s">
         <v>26</v>
       </c>

--- a/model_beef/postprocessing/20230106_final_heating_demands.xlsx
+++ b/model_beef/postprocessing/20230106_final_heating_demands.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="9900" tabRatio="673" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11010" tabRatio="673" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="U Value &amp; Energy demand results" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="scenarios-case study" sheetId="5" r:id="rId4"/>
     <sheet name="scenarios-final" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="141">
   <si>
     <t>Year of construction</t>
   </si>
@@ -937,7 +937,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1191,7 +1191,24 @@
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1230,24 +1247,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1332,9 +1331,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1344,9 +1341,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Energy demand plots'!$A$7:$A$28</c:f>
+              <c:f>'Energy demand plots'!$A$7:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>mfh01</c:v>
                 </c:pt>
@@ -1377,74 +1374,17 @@
                 <c:pt idx="9">
                   <c:v>mfh12</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>mfh01</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>mfh02</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>mfh03</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>mfh04</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>mfh05</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>mfh07</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>mfh08</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>mfh10</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>mfh11</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>mfh12</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Energy demand plots'!$B$19:$B$28</c:f>
+              <c:f>'Energy demand plots'!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.1599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.8216666666666668</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.9666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.9166666666666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.38333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.46833333333333338</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1481,9 +1421,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Energy demand plots'!$A$7:$A$28</c:f>
+              <c:f>'Energy demand plots'!$A$7:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>mfh01</c:v>
                 </c:pt>
@@ -1512,36 +1452,6 @@
                   <c:v>mfh11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>mfh12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>mfh01</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>mfh02</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>mfh03</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>mfh04</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>mfh05</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>mfh07</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>mfh08</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>mfh10</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>mfh11</c:v>
-                </c:pt>
-                <c:pt idx="21">
                   <c:v>mfh12</c:v>
                 </c:pt>
               </c:strCache>
@@ -1618,9 +1528,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Energy demand plots'!$A$7:$A$28</c:f>
+              <c:f>'Energy demand plots'!$A$7:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>mfh01</c:v>
                 </c:pt>
@@ -1649,36 +1559,6 @@
                   <c:v>mfh11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>mfh12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>mfh01</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>mfh02</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>mfh03</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>mfh04</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>mfh05</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>mfh07</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>mfh08</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>mfh10</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>mfh11</c:v>
-                </c:pt>
-                <c:pt idx="21">
                   <c:v>mfh12</c:v>
                 </c:pt>
               </c:strCache>
@@ -1837,13 +1717,19 @@
                   <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Space heating demands [MJ/ M</a:t>
+                  <a:t>Annual space heating demands [MJ/ M</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="30000">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>2</a:t>
+                  <a:t>2 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>/year</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
@@ -1887,7 +1773,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1997,737 +1883,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Energy demand plots'!$B$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Reported (Viola)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Energy demand plots'!$A$19:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>mfh01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mfh02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mfh03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mfh04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>mfh05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>mfh07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>mfh08</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>mfh10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>mfh11</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>mfh12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Energy demand plots'!$B$19:$B$28</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.1599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.8216666666666668</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.9666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.9166666666666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.38333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.46833333333333338</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7DB5-4476-8FF9-BE10E17D1500}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Energy demand plots'!$C$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Calculated</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Energy demand plots'!$A$19:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>mfh01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mfh02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mfh03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mfh04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>mfh05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>mfh07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>mfh08</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>mfh10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>mfh11</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>mfh12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Energy demand plots'!$C$19:$C$28</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.7354999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.7995000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2608333333333335</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.9373333333333336</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1870000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.72133333333333338</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1780000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.8313333333333333</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.53383333333333338</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1408333333333334</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7DB5-4476-8FF9-BE10E17D1500}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Energy demand plots'!$D$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Calculated (only material updated)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Energy demand plots'!$A$19:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>mfh01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mfh02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mfh03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mfh04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>mfh05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>mfh07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>mfh08</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>mfh10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>mfh11</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>mfh12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Energy demand plots'!$D$19:$D$28</c:f>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7DB5-4476-8FF9-BE10E17D1500}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Energy demand plots'!$E$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Default (Buffat)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Energy demand plots'!$A$19:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>mfh01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mfh02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mfh03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mfh04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>mfh05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>mfh07</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>mfh08</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>mfh10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>mfh11</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>mfh12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Energy demand plots'!$E$19:$E$28</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.3431666666666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.846166666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.746</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.9560000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1424999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.71016666666666661</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.9898333333333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.6520000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.8478333333333334</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7971666666666666</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7DB5-4476-8FF9-BE10E17D1500}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="648098184"/>
-        <c:axId val="648102120"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="648098184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="648102120"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="648102120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Space heating demands [MJ/ M</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="30000">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>2</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>/year ]</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="800">
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="9.8546432363082921E-3"/>
-              <c:y val="0.10760970722886141"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="648098184"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3270,523 +2426,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>555626</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3802,36 +2455,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>433386</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1352549</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4115,51 +2738,51 @@
       <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" style="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
-    <col min="9" max="9" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1796875" style="27" customWidth="1"/>
-    <col min="11" max="11" width="21.453125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.26953125" style="27" customWidth="1"/>
-    <col min="13" max="13" width="16.54296875" style="27" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.453125" style="27" customWidth="1"/>
-    <col min="15" max="52" width="9.1796875" style="27"/>
+    <col min="1" max="1" width="8.140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="27" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="27" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="27" customWidth="1"/>
+    <col min="15" max="52" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="132"/>
-      <c r="B1" s="132"/>
-      <c r="C1" s="133" t="s">
+    <row r="1" spans="1:52" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="137"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="129" t="s">
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="131" t="s">
+      <c r="I1" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="126" t="s">
+      <c r="J1" s="131" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-    </row>
-    <row r="2" spans="1:52" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="132"/>
-      <c r="B2" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="133"/>
+    </row>
+    <row r="2" spans="1:52" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="137"/>
+      <c r="B2" s="137"/>
       <c r="C2" s="96" t="s">
         <v>0</v>
       </c>
@@ -4175,8 +2798,8 @@
       <c r="G2" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
       <c r="J2" s="97" t="s">
         <v>117</v>
       </c>
@@ -4231,8 +2854,8 @@
       <c r="AY2" s="99"/>
       <c r="AZ2" s="99"/>
     </row>
-    <row r="3" spans="1:52" s="69" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="135" t="s">
+    <row r="3" spans="1:52" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="140" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="66" t="s">
@@ -4263,8 +2886,8 @@
       <c r="M3" s="79"/>
       <c r="N3" s="88"/>
     </row>
-    <row r="4" spans="1:52" s="69" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="136"/>
+    <row r="4" spans="1:52" s="69" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="141"/>
       <c r="B4" s="70" t="s">
         <v>21</v>
       </c>
@@ -4301,8 +2924,8 @@
       </c>
       <c r="N4" s="93"/>
     </row>
-    <row r="5" spans="1:52" s="69" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="135" t="s">
+    <row r="5" spans="1:52" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="140" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="66" t="s">
@@ -4335,8 +2958,8 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="6" spans="1:52" s="69" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="136"/>
+    <row r="6" spans="1:52" s="69" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="141"/>
       <c r="B6" s="70" t="s">
         <v>21</v>
       </c>
@@ -4375,8 +2998,8 @@
       </c>
       <c r="N6" s="83"/>
     </row>
-    <row r="7" spans="1:52" s="69" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="135" t="s">
+    <row r="7" spans="1:52" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="140" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="66" t="s">
@@ -4407,8 +3030,8 @@
       <c r="M7" s="103"/>
       <c r="N7" s="80"/>
     </row>
-    <row r="8" spans="1:52" s="69" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A8" s="136"/>
+    <row r="8" spans="1:52" s="69" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="141"/>
       <c r="B8" s="70" t="s">
         <v>21</v>
       </c>
@@ -4449,8 +3072,8 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="9" spans="1:52" s="69" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="137" t="s">
+    <row r="9" spans="1:52" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="123" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="66" t="s">
@@ -4481,8 +3104,8 @@
       <c r="M9" s="103"/>
       <c r="N9" s="80"/>
     </row>
-    <row r="10" spans="1:52" s="69" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A10" s="138"/>
+    <row r="10" spans="1:52" s="69" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="124"/>
       <c r="B10" s="70" t="s">
         <v>21</v>
       </c>
@@ -4519,8 +3142,8 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="11" spans="1:52" s="69" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="137" t="s">
+    <row r="11" spans="1:52" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="123" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="66" t="s">
@@ -4551,8 +3174,8 @@
       <c r="M11" s="103"/>
       <c r="N11" s="80"/>
     </row>
-    <row r="12" spans="1:52" s="69" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A12" s="138"/>
+    <row r="12" spans="1:52" s="69" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="124"/>
       <c r="B12" s="70" t="s">
         <v>21</v>
       </c>
@@ -4591,8 +3214,8 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:52" s="49" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="141" t="s">
+    <row r="13" spans="1:52" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="127" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="108" t="s">
@@ -4623,8 +3246,8 @@
       <c r="M13" s="113"/>
       <c r="N13" s="114"/>
     </row>
-    <row r="14" spans="1:52" s="49" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A14" s="142"/>
+    <row r="14" spans="1:52" s="49" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="128"/>
       <c r="B14" s="115" t="s">
         <v>8</v>
       </c>
@@ -4665,8 +3288,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:52" s="69" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="137" t="s">
+    <row r="15" spans="1:52" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="123" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="66" t="s">
@@ -4697,8 +3320,8 @@
       <c r="M15" s="103"/>
       <c r="N15" s="80"/>
     </row>
-    <row r="16" spans="1:52" s="69" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="138"/>
+    <row r="16" spans="1:52" s="69" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="124"/>
       <c r="B16" s="70" t="s">
         <v>21</v>
       </c>
@@ -4737,8 +3360,8 @@
       </c>
       <c r="N16" s="83"/>
     </row>
-    <row r="17" spans="1:52" s="69" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="137" t="s">
+    <row r="17" spans="1:52" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="123" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="66" t="s">
@@ -4769,8 +3392,8 @@
       <c r="M17" s="103"/>
       <c r="N17" s="80"/>
     </row>
-    <row r="18" spans="1:52" s="69" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A18" s="138"/>
+    <row r="18" spans="1:52" s="69" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="124"/>
       <c r="B18" s="70" t="s">
         <v>21</v>
       </c>
@@ -4811,8 +3434,8 @@
         <v>0.79499999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:52" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="139" t="s">
+    <row r="19" spans="1:52" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="125" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="60" t="s">
@@ -4881,8 +3504,8 @@
       <c r="AY19" s="27"/>
       <c r="AZ19" s="27"/>
     </row>
-    <row r="20" spans="1:52" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="140"/>
+    <row r="20" spans="1:52" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="126"/>
       <c r="B20" s="62" t="s">
         <v>21</v>
       </c>
@@ -4892,11 +3515,11 @@
       <c r="D20" s="62">
         <v>3203</v>
       </c>
-      <c r="E20" s="124" t="s">
+      <c r="E20" s="129" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="124"/>
-      <c r="G20" s="125"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="130"/>
       <c r="H20" s="72"/>
       <c r="I20" s="64">
         <v>2.3115541589915846E-4</v>
@@ -4955,8 +3578,8 @@
       <c r="AY20" s="27"/>
       <c r="AZ20" s="27"/>
     </row>
-    <row r="21" spans="1:52" s="69" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="137" t="s">
+    <row r="21" spans="1:52" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="123" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="66" t="s">
@@ -4987,8 +3610,8 @@
       <c r="M21" s="103"/>
       <c r="N21" s="80"/>
     </row>
-    <row r="22" spans="1:52" s="69" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A22" s="138"/>
+    <row r="22" spans="1:52" s="69" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="124"/>
       <c r="B22" s="70" t="s">
         <v>21</v>
       </c>
@@ -5027,8 +3650,8 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:52" s="69" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="137" t="s">
+    <row r="23" spans="1:52" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="123" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="66" t="s">
@@ -5059,8 +3682,8 @@
       <c r="M23" s="103"/>
       <c r="N23" s="80"/>
     </row>
-    <row r="24" spans="1:52" s="69" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A24" s="138"/>
+    <row r="24" spans="1:52" s="69" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="124"/>
       <c r="B24" s="70" t="s">
         <v>21</v>
       </c>
@@ -5101,8 +3724,8 @@
         <v>1.3466666666666667</v>
       </c>
     </row>
-    <row r="25" spans="1:52" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="139" t="s">
+    <row r="25" spans="1:52" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="125" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="60" t="s">
@@ -5171,8 +3794,8 @@
       <c r="AY25" s="27"/>
       <c r="AZ25" s="27"/>
     </row>
-    <row r="26" spans="1:52" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A26" s="140"/>
+    <row r="26" spans="1:52" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="126"/>
       <c r="B26" s="62" t="s">
         <v>21</v>
       </c>
@@ -5251,89 +3874,81 @@
       <c r="AY26" s="27"/>
       <c r="AZ26" s="27"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>0.38966822533956802</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>1.4416146083613647E-4</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>7.8933043004899298E-2</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>0.26548672566371684</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="27">
         <v>0.27027027027027029</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="27"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="27">
         <v>7.317073170731707E-5</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="27"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="27">
         <v>2.3115541589915846E-4</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="27"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="27"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="27"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="27">
         <v>0.57991513437057995</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="27"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="27">
         <v>8.516436722875149E-5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="H1:H2"/>
@@ -5344,6 +3959,14 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5355,33 +3978,33 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:S69"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.26953125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="95"/>
       <c r="B6" s="95" t="s">
         <v>130</v>
@@ -5396,7 +4019,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="95" t="s">
         <v>23</v>
       </c>
@@ -5413,7 +4036,7 @@
         <v>80.59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="95" t="s">
         <v>24</v>
       </c>
@@ -5430,7 +4053,7 @@
         <v>230.77</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="95" t="s">
         <v>25</v>
       </c>
@@ -5445,7 +4068,7 @@
         <v>104.76</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="95" t="s">
         <v>26</v>
       </c>
@@ -5460,7 +4083,7 @@
         <v>177.36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="95" t="s">
         <v>27</v>
       </c>
@@ -5475,7 +4098,7 @@
         <v>68.55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="95" t="s">
         <v>29</v>
       </c>
@@ -5492,7 +4115,7 @@
         <v>42.61</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="95" t="s">
         <v>30</v>
       </c>
@@ -5507,7 +4130,7 @@
         <v>119.39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="95" t="s">
         <v>32</v>
       </c>
@@ -5524,7 +4147,7 @@
         <v>159.12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="95" t="s">
         <v>33</v>
       </c>
@@ -5538,7 +4161,7 @@
         <v>170.87</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="95" t="s">
         <v>34</v>
       </c>
@@ -5553,856 +4176,960 @@
         <v>107.83</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="122"/>
       <c r="B17" s="122"/>
       <c r="C17" s="122"/>
       <c r="D17" s="122"/>
       <c r="E17" s="122"/>
     </row>
-    <row r="18" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="95"/>
-      <c r="B18" s="95" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="95" t="s">
+    <row r="18" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>129.25</v>
+      </c>
+      <c r="D21">
+        <v>84.77</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1">
+        <v>12.1</v>
+      </c>
+      <c r="C22">
+        <v>13.92</v>
+      </c>
+      <c r="D22">
+        <v>10.97</v>
+      </c>
+      <c r="E22" s="1">
+        <f>ABS($B22-C22)/$B22</f>
+        <v>0.15041322314049591</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" ref="F22:F32" si="0">ABS($B22-D22)/$B22</f>
+        <v>9.3388429752066029E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>45.43</v>
+      </c>
+      <c r="D23">
+        <v>15.54</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" ref="E23:E32" si="1">ABS($B23-C23)/$B23</f>
+        <v>0.89291666666666669</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.35250000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1">
+        <v>18.36</v>
+      </c>
+      <c r="C24">
+        <v>9.11</v>
+      </c>
+      <c r="D24">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.50381263616557737</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.51143790849673199</v>
+      </c>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="95" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="95" t="s">
+      <c r="L24" t="s">
+        <v>113</v>
+      </c>
+      <c r="M24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N24" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="C25">
+        <v>16.38</v>
+      </c>
+      <c r="D25">
+        <v>4.32</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.61428571428571421</v>
+      </c>
+      <c r="I25" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="123">
-        <f>B7/60</f>
-        <v>2.1599999999999997</v>
-      </c>
-      <c r="C19" s="123">
-        <f t="shared" ref="C19:E19" si="0">C7/60</f>
-        <v>1.7354999999999998</v>
-      </c>
-      <c r="D19" s="123">
+      <c r="J25" s="95">
+        <v>80.59</v>
+      </c>
+      <c r="K25" s="95">
+        <v>104.13</v>
+      </c>
+      <c r="L25" s="95">
+        <v>129.6</v>
+      </c>
+      <c r="M25" s="1">
+        <f>ABS($L25-J25)/$L25</f>
+        <v>0.37816358024691354</v>
+      </c>
+      <c r="N25" s="1">
+        <f>ABS($L25-K25)/$L25</f>
+        <v>0.19652777777777777</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" ref="O25:O34" si="2">M25-N25</f>
+        <v>0.18163580246913577</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="1">
+        <v>7.56</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>1.351</v>
-      </c>
-      <c r="E19" s="123">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="95">
+        <v>230.77</v>
+      </c>
+      <c r="K26" s="95">
+        <v>167.97</v>
+      </c>
+      <c r="L26" s="95">
+        <v>106</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" ref="M26:N34" si="3">ABS($L26-J26)/$L26</f>
+        <v>1.1770754716981133</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.58462264150943399</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.59245283018867934</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="C27">
+        <v>50.87</v>
+      </c>
+      <c r="D27">
+        <v>29.38</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2747899159663865</v>
+      </c>
+      <c r="F27" s="4">
         <f t="shared" si="0"/>
-        <v>1.3431666666666666</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="95" t="s">
+        <v>1.4689075630252098</v>
+      </c>
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="95">
+        <v>104.76</v>
+      </c>
+      <c r="K27" s="95">
+        <v>75.650000000000006</v>
+      </c>
+      <c r="L27" s="95">
+        <v>70</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="3"/>
+        <v>0.49657142857142866</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="3"/>
+        <v>8.0714285714285794E-2</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.41585714285714287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1">
         <v>24</v>
       </c>
-      <c r="B20" s="123">
-        <f t="shared" ref="B20:E20" si="1">B8/60</f>
-        <v>1.7666666666666666</v>
-      </c>
-      <c r="C20" s="123">
+      <c r="C28">
+        <v>147.25</v>
+      </c>
+      <c r="D28">
+        <v>61.98</v>
+      </c>
+      <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>2.7995000000000001</v>
-      </c>
-      <c r="D20" s="123">
+        <v>5.135416666666667</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5824999999999998</v>
+      </c>
+      <c r="I28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="95">
+        <v>177.36</v>
+      </c>
+      <c r="K28" s="95">
+        <v>176.24</v>
+      </c>
+      <c r="L28" s="95">
+        <v>169.3</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="3"/>
+        <v>4.7607796810395758E-2</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="3"/>
+        <v>4.0992321323095084E-2</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="2"/>
+        <v>6.6154754873006746E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1">
+        <v>27.8</v>
+      </c>
+      <c r="C29">
+        <v>107.31</v>
+      </c>
+      <c r="D29">
+        <v>104.17</v>
+      </c>
+      <c r="E29" s="1">
         <f t="shared" si="1"/>
-        <v>4.6718333333333337</v>
-      </c>
-      <c r="E20" s="123">
+        <v>2.8600719424460435</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7471223021582736</v>
+      </c>
+      <c r="I29" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="95">
+        <v>68.55</v>
+      </c>
+      <c r="K29" s="95">
+        <v>71.22</v>
+      </c>
+      <c r="L29" s="95">
+        <v>118</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="3"/>
+        <v>0.41906779661016952</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="3"/>
+        <v>0.39644067796610172</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2627118644067801E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="C30">
+        <v>116.4</v>
+      </c>
+      <c r="D30">
+        <v>67.91</v>
+      </c>
+      <c r="E30" s="1">
         <f t="shared" si="1"/>
-        <v>3.846166666666667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="95" t="s">
+        <v>7.083333333333333</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7159722222222218</v>
+      </c>
+      <c r="I30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="95">
+        <v>42.61</v>
+      </c>
+      <c r="K30" s="95">
+        <v>43.28</v>
+      </c>
+      <c r="L30" s="95">
+        <v>48</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="3"/>
+        <v>0.11229166666666668</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="3"/>
+        <v>9.8333333333333314E-2</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3958333333333364E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="123">
-        <f t="shared" ref="B21:E21" si="2">B9/60</f>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="C21" s="123">
+      <c r="B31" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="C31">
+        <v>236.91</v>
+      </c>
+      <c r="D31">
+        <v>127.3</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="1"/>
+        <v>70.790909090909096</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="0"/>
+        <v>37.575757575757578</v>
+      </c>
+      <c r="I31" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="95">
+        <v>119.39</v>
+      </c>
+      <c r="K31" s="95">
+        <v>70.680000000000007</v>
+      </c>
+      <c r="L31" s="95">
+        <v>78</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="3"/>
+        <v>0.53064102564102567</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="3"/>
+        <v>9.384615384615376E-2</v>
+      </c>
+      <c r="O31" s="1">
         <f t="shared" si="2"/>
-        <v>1.2608333333333335</v>
-      </c>
-      <c r="D21" s="123">
+        <v>0.43679487179487192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="C32">
+        <v>277.99</v>
+      </c>
+      <c r="D32">
+        <v>213.86</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="1"/>
+        <v>83.239393939393949</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="0"/>
+        <v>63.806060606060612</v>
+      </c>
+      <c r="I32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="95">
+        <v>159.12</v>
+      </c>
+      <c r="K32" s="49">
+        <v>109.88</v>
+      </c>
+      <c r="L32" s="95">
+        <v>115</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="3"/>
+        <v>0.38365217391304351</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="3"/>
+        <v>4.452173913043482E-2</v>
+      </c>
+      <c r="O32" s="1">
         <f t="shared" si="2"/>
+        <v>0.33913043478260868</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" s="95">
+        <v>170.87</v>
+      </c>
+      <c r="K33" s="95">
+        <v>32.03</v>
+      </c>
+      <c r="L33" s="95">
+        <v>23</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="3"/>
+        <v>6.4291304347826088</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="3"/>
+        <v>0.39260869565217399</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="2"/>
+        <v>6.0365217391304347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="95">
+        <v>107.83</v>
+      </c>
+      <c r="K34" s="95">
+        <v>68.45</v>
+      </c>
+      <c r="L34" s="95">
+        <v>28.1</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="3"/>
+        <v>2.8373665480427039</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4359430604982206</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4014234875444833</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>129.25</v>
+      </c>
+      <c r="C35">
+        <v>84.77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36">
+        <v>13.92</v>
+      </c>
+      <c r="C36">
+        <v>10.97</v>
+      </c>
+      <c r="D36">
+        <v>12.1</v>
+      </c>
+      <c r="E36">
+        <v>0.15041322314049591</v>
+      </c>
+      <c r="F36">
+        <v>9.3388429752066029E-2</v>
+      </c>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37">
+        <v>45.43</v>
+      </c>
+      <c r="C37">
+        <v>15.54</v>
+      </c>
+      <c r="D37">
+        <v>24</v>
+      </c>
+      <c r="E37">
+        <v>0.89291666666666669</v>
+      </c>
+      <c r="F37">
+        <v>0.35250000000000004</v>
+      </c>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38">
+        <v>9.11</v>
+      </c>
+      <c r="C38">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="D38">
+        <v>18.36</v>
+      </c>
+      <c r="E38">
+        <v>0.50381263616557737</v>
+      </c>
+      <c r="F38">
+        <v>0.51143790849673199</v>
+      </c>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39">
+        <v>16.38</v>
+      </c>
+      <c r="C39">
+        <v>4.32</v>
+      </c>
+      <c r="D39">
+        <v>11.2</v>
+      </c>
+      <c r="E39">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="F39">
+        <v>0.61428571428571421</v>
+      </c>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40">
         <v>0</v>
       </c>
-      <c r="E21" s="123">
-        <f t="shared" si="2"/>
-        <v>1.746</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="95" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="123">
-        <f t="shared" ref="B22:E22" si="3">B10/60</f>
-        <v>2.8216666666666668</v>
-      </c>
-      <c r="C22" s="123">
-        <f t="shared" si="3"/>
-        <v>2.9373333333333336</v>
-      </c>
-      <c r="D22" s="123">
-        <f t="shared" si="3"/>
+      <c r="C40">
         <v>0</v>
       </c>
-      <c r="E22" s="123">
-        <f t="shared" si="3"/>
-        <v>2.9560000000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="123">
-        <f t="shared" ref="B23:E23" si="4">B11/60</f>
-        <v>1.9666666666666666</v>
-      </c>
-      <c r="C23" s="123">
-        <f t="shared" si="4"/>
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="D23" s="123">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="123">
-        <f t="shared" si="4"/>
-        <v>1.1424999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="123">
-        <f t="shared" ref="B24:E24" si="5">B12/60</f>
-        <v>0.8</v>
-      </c>
-      <c r="C24" s="123">
-        <f t="shared" si="5"/>
-        <v>0.72133333333333338</v>
-      </c>
-      <c r="D24" s="123">
-        <f t="shared" si="5"/>
-        <v>0.59150000000000003</v>
-      </c>
-      <c r="E24" s="123">
-        <f t="shared" si="5"/>
-        <v>0.71016666666666661</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="95" t="s">
+      <c r="D40">
+        <v>7.56</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="49"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41">
+        <v>50.87</v>
+      </c>
+      <c r="C41">
+        <v>29.38</v>
+      </c>
+      <c r="D41">
+        <v>11.9</v>
+      </c>
+      <c r="E41">
+        <v>3.2747899159663865</v>
+      </c>
+      <c r="F41">
+        <v>1.4689075630252098</v>
+      </c>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="49"/>
+      <c r="S41" s="49"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="123">
-        <f t="shared" ref="B25:E25" si="6">B13/60</f>
-        <v>1.3</v>
-      </c>
-      <c r="C25" s="123">
-        <f t="shared" si="6"/>
-        <v>1.1780000000000002</v>
-      </c>
-      <c r="D25" s="123">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="123">
-        <f t="shared" si="6"/>
-        <v>1.9898333333333333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="95" t="s">
+      <c r="B42">
+        <v>147.25</v>
+      </c>
+      <c r="C42">
+        <v>61.98</v>
+      </c>
+      <c r="D42">
+        <v>24</v>
+      </c>
+      <c r="E42">
+        <v>5.135416666666667</v>
+      </c>
+      <c r="F42">
+        <v>1.5824999999999998</v>
+      </c>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="49"/>
+      <c r="S42" s="49"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="123">
-        <f t="shared" ref="B26:E26" si="7">B14/60</f>
-        <v>1.9166666666666667</v>
-      </c>
-      <c r="C26" s="123">
-        <f t="shared" si="7"/>
-        <v>1.8313333333333333</v>
-      </c>
-      <c r="D26" s="123">
-        <f t="shared" si="7"/>
-        <v>1.8313333333333333</v>
-      </c>
-      <c r="E26" s="123">
-        <f t="shared" si="7"/>
-        <v>2.6520000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="123">
-        <f t="shared" ref="B27:E27" si="8">B15/60</f>
-        <v>0.38333333333333336</v>
-      </c>
-      <c r="C27" s="123">
-        <f t="shared" si="8"/>
-        <v>0.53383333333333338</v>
-      </c>
-      <c r="D27" s="123">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="123">
-        <f t="shared" si="8"/>
-        <v>2.8478333333333334</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="123">
-        <f t="shared" ref="B28:E28" si="9">B16/60</f>
-        <v>0.46833333333333338</v>
-      </c>
-      <c r="C28" s="123">
-        <f t="shared" si="9"/>
-        <v>1.1408333333333334</v>
-      </c>
-      <c r="D28" s="123">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="123">
-        <f t="shared" si="9"/>
-        <v>1.7971666666666666</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33">
-        <v>129.25</v>
-      </c>
-      <c r="D33">
-        <v>84.77</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="1">
-        <v>12.1</v>
-      </c>
-      <c r="C34">
-        <v>13.92</v>
-      </c>
-      <c r="D34">
-        <v>10.97</v>
-      </c>
-      <c r="E34" s="1">
-        <f>ABS($B34-C34)/$B34</f>
-        <v>0.15041322314049591</v>
-      </c>
-      <c r="F34" s="4">
-        <f t="shared" ref="F34:F44" si="10">ABS($B34-D34)/$B34</f>
-        <v>9.3388429752066029E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="1">
-        <v>24</v>
-      </c>
-      <c r="C35">
-        <v>45.43</v>
-      </c>
-      <c r="D35">
-        <v>15.54</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" ref="E35:E44" si="11">ABS($B35-C35)/$B35</f>
-        <v>0.89291666666666669</v>
-      </c>
-      <c r="F35" s="4">
-        <f t="shared" si="10"/>
-        <v>0.35250000000000004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="1">
-        <v>18.36</v>
-      </c>
-      <c r="C36">
-        <v>9.11</v>
-      </c>
-      <c r="D36">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="E36" s="1">
-        <f t="shared" si="11"/>
-        <v>0.50381263616557737</v>
-      </c>
-      <c r="F36" s="4">
-        <f t="shared" si="10"/>
-        <v>0.51143790849673199</v>
-      </c>
-      <c r="I36" t="s">
-        <v>43</v>
-      </c>
-      <c r="J36" t="s">
-        <v>111</v>
-      </c>
-      <c r="K36" t="s">
-        <v>112</v>
-      </c>
-      <c r="L36" t="s">
-        <v>113</v>
-      </c>
-      <c r="M36" t="s">
-        <v>50</v>
-      </c>
-      <c r="N36" t="s">
-        <v>51</v>
-      </c>
-      <c r="O36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="1">
-        <v>11.2</v>
-      </c>
-      <c r="C37">
-        <v>16.38</v>
-      </c>
-      <c r="D37">
-        <v>4.32</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" si="11"/>
-        <v>0.46250000000000002</v>
-      </c>
-      <c r="F37" s="1">
-        <f t="shared" si="10"/>
-        <v>0.61428571428571421</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="B43">
+        <v>107.31</v>
+      </c>
+      <c r="C43">
+        <v>104.17</v>
+      </c>
+      <c r="D43">
+        <v>27.8</v>
+      </c>
+      <c r="E43">
+        <v>2.8600719424460435</v>
+      </c>
+      <c r="F43">
+        <v>2.7471223021582736</v>
+      </c>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="49"/>
+      <c r="S43" s="49"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>23</v>
       </c>
-      <c r="J37" s="95">
-        <v>80.59</v>
-      </c>
-      <c r="K37" s="95">
-        <v>104.13</v>
-      </c>
-      <c r="L37" s="95">
-        <v>129.6</v>
-      </c>
-      <c r="M37" s="1">
-        <f>ABS($L37-J37)/$L37</f>
-        <v>0.37816358024691354</v>
-      </c>
-      <c r="N37" s="1">
-        <f>ABS($L37-K37)/$L37</f>
-        <v>0.19652777777777777</v>
-      </c>
-      <c r="O37" s="1">
-        <f t="shared" ref="O37:O46" si="12">M37-N37</f>
-        <v>0.18163580246913577</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="1">
-        <v>7.56</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="F38" s="1">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="I38" t="s">
-        <v>24</v>
-      </c>
-      <c r="J38" s="95">
-        <v>230.77</v>
-      </c>
-      <c r="K38" s="95">
-        <v>167.97</v>
-      </c>
-      <c r="L38" s="95">
-        <v>106</v>
-      </c>
-      <c r="M38" s="1">
-        <f t="shared" ref="M38:N46" si="13">ABS($L38-J38)/$L38</f>
-        <v>1.1770754716981133</v>
-      </c>
-      <c r="N38" s="1">
-        <f t="shared" si="13"/>
-        <v>0.58462264150943399</v>
-      </c>
-      <c r="O38" s="1">
-        <f t="shared" si="12"/>
-        <v>0.59245283018867934</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="1">
-        <v>11.9</v>
-      </c>
-      <c r="C39">
-        <v>50.87</v>
-      </c>
-      <c r="D39">
-        <v>29.38</v>
-      </c>
-      <c r="E39" s="1">
-        <f t="shared" si="11"/>
-        <v>3.2747899159663865</v>
-      </c>
-      <c r="F39" s="4">
-        <f t="shared" si="10"/>
-        <v>1.4689075630252098</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="B44">
+        <v>116.4</v>
+      </c>
+      <c r="C44">
+        <v>67.91</v>
+      </c>
+      <c r="D44">
+        <v>14.4</v>
+      </c>
+      <c r="E44">
+        <v>7.083333333333333</v>
+      </c>
+      <c r="F44">
+        <v>3.7159722222222218</v>
+      </c>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="49"/>
+      <c r="Q44" s="49"/>
+      <c r="R44" s="49"/>
+      <c r="S44" s="49"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>25</v>
       </c>
-      <c r="J39" s="95">
-        <v>104.76</v>
-      </c>
-      <c r="K39" s="95">
-        <v>75.650000000000006</v>
-      </c>
-      <c r="L39" s="95">
-        <v>70</v>
-      </c>
-      <c r="M39" s="1">
-        <f t="shared" si="13"/>
-        <v>0.49657142857142866</v>
-      </c>
-      <c r="N39" s="1">
-        <f t="shared" si="13"/>
-        <v>8.0714285714285794E-2</v>
-      </c>
-      <c r="O39" s="1">
-        <f t="shared" si="12"/>
-        <v>0.41585714285714287</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="1">
-        <v>24</v>
-      </c>
-      <c r="C40">
-        <v>147.25</v>
-      </c>
-      <c r="D40">
-        <v>61.98</v>
-      </c>
-      <c r="E40" s="1">
-        <f t="shared" si="11"/>
-        <v>5.135416666666667</v>
-      </c>
-      <c r="F40" s="4">
-        <f t="shared" si="10"/>
-        <v>1.5824999999999998</v>
-      </c>
-      <c r="I40" t="s">
-        <v>26</v>
-      </c>
-      <c r="J40" s="95">
-        <v>177.36</v>
-      </c>
-      <c r="K40" s="95">
-        <v>176.24</v>
-      </c>
-      <c r="L40" s="95">
-        <v>169.3</v>
-      </c>
-      <c r="M40" s="1">
-        <f t="shared" si="13"/>
-        <v>4.7607796810395758E-2</v>
-      </c>
-      <c r="N40" s="1">
-        <f t="shared" si="13"/>
-        <v>4.0992321323095084E-2</v>
-      </c>
-      <c r="O40" s="1">
-        <f t="shared" si="12"/>
-        <v>6.6154754873006746E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="1">
-        <v>27.8</v>
-      </c>
-      <c r="C41">
-        <v>107.31</v>
-      </c>
-      <c r="D41">
-        <v>104.17</v>
-      </c>
-      <c r="E41" s="1">
-        <f t="shared" si="11"/>
-        <v>2.8600719424460435</v>
-      </c>
-      <c r="F41" s="4">
-        <f t="shared" si="10"/>
-        <v>2.7471223021582736</v>
-      </c>
-      <c r="I41" t="s">
-        <v>27</v>
-      </c>
-      <c r="J41" s="95">
-        <v>68.55</v>
-      </c>
-      <c r="K41" s="95">
-        <v>71.22</v>
-      </c>
-      <c r="L41" s="95">
-        <v>118</v>
-      </c>
-      <c r="M41" s="1">
-        <f t="shared" si="13"/>
-        <v>0.41906779661016952</v>
-      </c>
-      <c r="N41" s="1">
-        <f t="shared" si="13"/>
-        <v>0.39644067796610172</v>
-      </c>
-      <c r="O41" s="1">
-        <f t="shared" si="12"/>
-        <v>2.2627118644067801E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="1">
-        <v>14.4</v>
-      </c>
-      <c r="C42">
-        <v>116.4</v>
-      </c>
-      <c r="D42">
-        <v>67.91</v>
-      </c>
-      <c r="E42" s="1">
-        <f t="shared" si="11"/>
-        <v>7.083333333333333</v>
-      </c>
-      <c r="F42" s="4">
-        <f t="shared" si="10"/>
-        <v>3.7159722222222218</v>
-      </c>
-      <c r="I42" t="s">
-        <v>29</v>
-      </c>
-      <c r="J42" s="95">
-        <v>42.61</v>
-      </c>
-      <c r="K42" s="95">
-        <v>43.28</v>
-      </c>
-      <c r="L42" s="95">
-        <v>48</v>
-      </c>
-      <c r="M42" s="1">
-        <f t="shared" si="13"/>
-        <v>0.11229166666666668</v>
-      </c>
-      <c r="N42" s="1">
-        <f t="shared" si="13"/>
-        <v>9.8333333333333314E-2</v>
-      </c>
-      <c r="O42" s="1">
-        <f t="shared" si="12"/>
-        <v>1.3958333333333364E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="1">
+      <c r="B45">
+        <v>236.91</v>
+      </c>
+      <c r="C45">
+        <v>127.3</v>
+      </c>
+      <c r="D45">
         <v>3.3</v>
       </c>
-      <c r="C43">
-        <v>236.91</v>
-      </c>
-      <c r="D43">
-        <v>127.3</v>
-      </c>
-      <c r="E43" s="1">
-        <f t="shared" si="11"/>
+      <c r="E45">
         <v>70.790909090909096</v>
       </c>
-      <c r="F43" s="4">
-        <f t="shared" si="10"/>
+      <c r="F45">
         <v>37.575757575757578</v>
       </c>
-      <c r="I43" t="s">
-        <v>30</v>
-      </c>
-      <c r="J43" s="95">
-        <v>119.39</v>
-      </c>
-      <c r="K43" s="95">
-        <v>70.680000000000007</v>
-      </c>
-      <c r="L43" s="95">
-        <v>78</v>
-      </c>
-      <c r="M43" s="1">
-        <f t="shared" si="13"/>
-        <v>0.53064102564102567</v>
-      </c>
-      <c r="N43" s="1">
-        <f t="shared" si="13"/>
-        <v>9.384615384615376E-2</v>
-      </c>
-      <c r="O43" s="1">
-        <f t="shared" si="12"/>
-        <v>0.43679487179487192</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="49"/>
+      <c r="Q45" s="49"/>
+      <c r="R45" s="49"/>
+      <c r="S45" s="49"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B46">
+        <v>277.99</v>
+      </c>
+      <c r="C46">
+        <v>213.86</v>
+      </c>
+      <c r="D46">
         <v>3.3</v>
       </c>
-      <c r="C44">
-        <v>277.99</v>
-      </c>
-      <c r="D44">
-        <v>213.86</v>
-      </c>
-      <c r="E44" s="1">
-        <f t="shared" si="11"/>
+      <c r="E46">
         <v>83.239393939393949</v>
       </c>
-      <c r="F44" s="4">
-        <f t="shared" si="10"/>
+      <c r="F46">
         <v>63.806060606060612</v>
       </c>
-      <c r="I44" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" s="95">
-        <v>159.12</v>
-      </c>
-      <c r="K44" s="49">
-        <v>109.88</v>
-      </c>
-      <c r="L44" s="95">
-        <v>115</v>
-      </c>
-      <c r="M44" s="1">
-        <f t="shared" si="13"/>
-        <v>0.38365217391304351</v>
-      </c>
-      <c r="N44" s="1">
-        <f t="shared" si="13"/>
-        <v>4.452173913043482E-2</v>
-      </c>
-      <c r="O44" s="1">
-        <f t="shared" si="12"/>
-        <v>0.33913043478260868</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="I45" t="s">
-        <v>33</v>
-      </c>
-      <c r="J45" s="95">
-        <v>170.87</v>
-      </c>
-      <c r="K45" s="95">
-        <v>32.03</v>
-      </c>
-      <c r="L45" s="95">
-        <v>23</v>
-      </c>
-      <c r="M45" s="1">
-        <f t="shared" si="13"/>
-        <v>6.4291304347826088</v>
-      </c>
-      <c r="N45" s="1">
-        <f t="shared" si="13"/>
-        <v>0.39260869565217399</v>
-      </c>
-      <c r="O45" s="1">
-        <f t="shared" si="12"/>
-        <v>6.0365217391304347</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46" t="s">
-        <v>49</v>
-      </c>
-      <c r="I46" t="s">
-        <v>34</v>
-      </c>
-      <c r="J46" s="95">
-        <v>107.83</v>
-      </c>
-      <c r="K46" s="95">
-        <v>68.45</v>
-      </c>
-      <c r="L46" s="95">
-        <v>28.1</v>
-      </c>
-      <c r="M46" s="1">
-        <f t="shared" si="13"/>
-        <v>2.8373665480427039</v>
-      </c>
-      <c r="N46" s="1">
-        <f t="shared" si="13"/>
-        <v>1.4359430604982206</v>
-      </c>
-      <c r="O46" s="1">
-        <f t="shared" si="12"/>
-        <v>1.4014234875444833</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47">
-        <v>129.25</v>
-      </c>
-      <c r="C47">
-        <v>84.77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48">
-        <v>13.92</v>
-      </c>
-      <c r="C48">
-        <v>10.97</v>
-      </c>
-      <c r="D48">
-        <v>12.1</v>
-      </c>
-      <c r="E48">
-        <v>0.15041322314049591</v>
-      </c>
-      <c r="F48">
-        <v>9.3388429752066029E-2</v>
-      </c>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="49"/>
+      <c r="R46" s="49"/>
+      <c r="S46" s="49"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="49"/>
+      <c r="Q47" s="49"/>
+      <c r="R47" s="49"/>
+      <c r="S47" s="49"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H48" s="49"/>
       <c r="I48" s="49"/>
       <c r="J48" s="49"/>
       <c r="K48" s="49"/>
       <c r="L48" s="49"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49">
-        <v>45.43</v>
-      </c>
-      <c r="C49">
-        <v>15.54</v>
-      </c>
-      <c r="D49">
-        <v>24</v>
-      </c>
-      <c r="E49">
-        <v>0.89291666666666669</v>
-      </c>
-      <c r="F49">
-        <v>0.35250000000000004</v>
-      </c>
+      <c r="M48" s="49"/>
+      <c r="N48" s="49"/>
+      <c r="O48" s="49"/>
+      <c r="P48" s="49"/>
+      <c r="Q48" s="49"/>
+      <c r="R48" s="49"/>
+      <c r="S48" s="49"/>
+    </row>
+    <row r="49" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H49" s="49"/>
       <c r="I49" s="49"/>
       <c r="J49" s="49"/>
@@ -6416,25 +5143,7 @@
       <c r="R49" s="49"/>
       <c r="S49" s="49"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50">
-        <v>9.11</v>
-      </c>
-      <c r="C50">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="D50">
-        <v>18.36</v>
-      </c>
-      <c r="E50">
-        <v>0.50381263616557737</v>
-      </c>
-      <c r="F50">
-        <v>0.51143790849673199</v>
-      </c>
+    <row r="50" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H50" s="49"/>
       <c r="I50" s="49"/>
       <c r="J50" s="49"/>
@@ -6448,25 +5157,7 @@
       <c r="R50" s="49"/>
       <c r="S50" s="49"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51">
-        <v>16.38</v>
-      </c>
-      <c r="C51">
-        <v>4.32</v>
-      </c>
-      <c r="D51">
-        <v>11.2</v>
-      </c>
-      <c r="E51">
-        <v>0.46250000000000002</v>
-      </c>
-      <c r="F51">
-        <v>0.61428571428571421</v>
-      </c>
+    <row r="51" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H51" s="49"/>
       <c r="I51" s="49"/>
       <c r="J51" s="49"/>
@@ -6480,25 +5171,7 @@
       <c r="R51" s="49"/>
       <c r="S51" s="49"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>7.56</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
+    <row r="52" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H52" s="49"/>
       <c r="I52" s="49"/>
       <c r="J52" s="49"/>
@@ -6512,25 +5185,7 @@
       <c r="R52" s="49"/>
       <c r="S52" s="49"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53">
-        <v>50.87</v>
-      </c>
-      <c r="C53">
-        <v>29.38</v>
-      </c>
-      <c r="D53">
-        <v>11.9</v>
-      </c>
-      <c r="E53">
-        <v>3.2747899159663865</v>
-      </c>
-      <c r="F53">
-        <v>1.4689075630252098</v>
-      </c>
+    <row r="53" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H53" s="49"/>
       <c r="I53" s="49"/>
       <c r="J53" s="49"/>
@@ -6544,25 +5199,7 @@
       <c r="R53" s="49"/>
       <c r="S53" s="49"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>30</v>
-      </c>
-      <c r="B54">
-        <v>147.25</v>
-      </c>
-      <c r="C54">
-        <v>61.98</v>
-      </c>
-      <c r="D54">
-        <v>24</v>
-      </c>
-      <c r="E54">
-        <v>5.135416666666667</v>
-      </c>
-      <c r="F54">
-        <v>1.5824999999999998</v>
-      </c>
+    <row r="54" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H54" s="49"/>
       <c r="I54" s="49"/>
       <c r="J54" s="49"/>
@@ -6576,25 +5213,7 @@
       <c r="R54" s="49"/>
       <c r="S54" s="49"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55">
-        <v>107.31</v>
-      </c>
-      <c r="C55">
-        <v>104.17</v>
-      </c>
-      <c r="D55">
-        <v>27.8</v>
-      </c>
-      <c r="E55">
-        <v>2.8600719424460435</v>
-      </c>
-      <c r="F55">
-        <v>2.7471223021582736</v>
-      </c>
+    <row r="55" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H55" s="49"/>
       <c r="I55" s="49"/>
       <c r="J55" s="49"/>
@@ -6608,25 +5227,7 @@
       <c r="R55" s="49"/>
       <c r="S55" s="49"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56">
-        <v>116.4</v>
-      </c>
-      <c r="C56">
-        <v>67.91</v>
-      </c>
-      <c r="D56">
-        <v>14.4</v>
-      </c>
-      <c r="E56">
-        <v>7.083333333333333</v>
-      </c>
-      <c r="F56">
-        <v>3.7159722222222218</v>
-      </c>
+    <row r="56" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H56" s="49"/>
       <c r="I56" s="49"/>
       <c r="J56" s="49"/>
@@ -6640,216 +5241,12 @@
       <c r="R56" s="49"/>
       <c r="S56" s="49"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57">
-        <v>236.91</v>
-      </c>
-      <c r="C57">
-        <v>127.3</v>
-      </c>
-      <c r="D57">
-        <v>3.3</v>
-      </c>
-      <c r="E57">
-        <v>70.790909090909096</v>
-      </c>
-      <c r="F57">
-        <v>37.575757575757578</v>
-      </c>
+    <row r="57" spans="8:19" x14ac:dyDescent="0.25">
       <c r="H57" s="49"/>
       <c r="I57" s="49"/>
       <c r="J57" s="49"/>
       <c r="K57" s="49"/>
       <c r="L57" s="49"/>
-      <c r="M57" s="49"/>
-      <c r="N57" s="49"/>
-      <c r="O57" s="49"/>
-      <c r="P57" s="49"/>
-      <c r="Q57" s="49"/>
-      <c r="R57" s="49"/>
-      <c r="S57" s="49"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58">
-        <v>277.99</v>
-      </c>
-      <c r="C58">
-        <v>213.86</v>
-      </c>
-      <c r="D58">
-        <v>3.3</v>
-      </c>
-      <c r="E58">
-        <v>83.239393939393949</v>
-      </c>
-      <c r="F58">
-        <v>63.806060606060612</v>
-      </c>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49"/>
-      <c r="K58" s="49"/>
-      <c r="L58" s="49"/>
-      <c r="M58" s="49"/>
-      <c r="N58" s="49"/>
-      <c r="O58" s="49"/>
-      <c r="P58" s="49"/>
-      <c r="Q58" s="49"/>
-      <c r="R58" s="49"/>
-      <c r="S58" s="49"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="49"/>
-      <c r="L59" s="49"/>
-      <c r="M59" s="49"/>
-      <c r="N59" s="49"/>
-      <c r="O59" s="49"/>
-      <c r="P59" s="49"/>
-      <c r="Q59" s="49"/>
-      <c r="R59" s="49"/>
-      <c r="S59" s="49"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="49"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="49"/>
-      <c r="N60" s="49"/>
-      <c r="O60" s="49"/>
-      <c r="P60" s="49"/>
-      <c r="Q60" s="49"/>
-      <c r="R60" s="49"/>
-      <c r="S60" s="49"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="49"/>
-      <c r="M61" s="49"/>
-      <c r="N61" s="49"/>
-      <c r="O61" s="49"/>
-      <c r="P61" s="49"/>
-      <c r="Q61" s="49"/>
-      <c r="R61" s="49"/>
-      <c r="S61" s="49"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="49"/>
-      <c r="L62" s="49"/>
-      <c r="M62" s="49"/>
-      <c r="N62" s="49"/>
-      <c r="O62" s="49"/>
-      <c r="P62" s="49"/>
-      <c r="Q62" s="49"/>
-      <c r="R62" s="49"/>
-      <c r="S62" s="49"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="49"/>
-      <c r="O63" s="49"/>
-      <c r="P63" s="49"/>
-      <c r="Q63" s="49"/>
-      <c r="R63" s="49"/>
-      <c r="S63" s="49"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="H64" s="49"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="49"/>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="49"/>
-      <c r="O64" s="49"/>
-      <c r="P64" s="49"/>
-      <c r="Q64" s="49"/>
-      <c r="R64" s="49"/>
-      <c r="S64" s="49"/>
-    </row>
-    <row r="65" spans="8:19" x14ac:dyDescent="0.35">
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="49"/>
-      <c r="N65" s="49"/>
-      <c r="O65" s="49"/>
-      <c r="P65" s="49"/>
-      <c r="Q65" s="49"/>
-      <c r="R65" s="49"/>
-      <c r="S65" s="49"/>
-    </row>
-    <row r="66" spans="8:19" x14ac:dyDescent="0.35">
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="49"/>
-      <c r="L66" s="49"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="49"/>
-      <c r="O66" s="49"/>
-      <c r="P66" s="49"/>
-      <c r="Q66" s="49"/>
-      <c r="R66" s="49"/>
-      <c r="S66" s="49"/>
-    </row>
-    <row r="67" spans="8:19" x14ac:dyDescent="0.35">
-      <c r="H67" s="49"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="49"/>
-      <c r="K67" s="49"/>
-      <c r="L67" s="49"/>
-      <c r="M67" s="49"/>
-      <c r="N67" s="49"/>
-      <c r="O67" s="49"/>
-      <c r="P67" s="49"/>
-      <c r="Q67" s="49"/>
-      <c r="R67" s="49"/>
-      <c r="S67" s="49"/>
-    </row>
-    <row r="68" spans="8:19" x14ac:dyDescent="0.35">
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="49"/>
-      <c r="K68" s="49"/>
-      <c r="L68" s="49"/>
-      <c r="M68" s="49"/>
-      <c r="N68" s="49"/>
-      <c r="O68" s="49"/>
-      <c r="P68" s="49"/>
-      <c r="Q68" s="49"/>
-      <c r="R68" s="49"/>
-      <c r="S68" s="49"/>
-    </row>
-    <row r="69" spans="8:19" x14ac:dyDescent="0.35">
-      <c r="H69" s="49"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="49"/>
-      <c r="K69" s="49"/>
-      <c r="L69" s="49"/>
     </row>
   </sheetData>
   <sortState ref="I6:O15">
@@ -6871,18 +5268,18 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="90.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="90.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
@@ -6890,7 +5287,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
@@ -6898,7 +5295,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
@@ -6906,52 +5303,52 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>67</v>
       </c>
@@ -6983,24 +5380,24 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="10"/>
-    <col min="2" max="2" width="15.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" style="10" customWidth="1"/>
-    <col min="4" max="5" width="11.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="10"/>
+    <col min="2" max="2" width="15.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="10" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7265625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="10" customWidth="1"/>
     <col min="11" max="15" width="0" style="10" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="20.81640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.453125" style="26" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7265625" style="10"/>
+    <col min="16" max="16" width="20.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
         <v>73</v>
       </c>
@@ -7014,7 +5411,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11" t="s">
         <v>75</v>
@@ -7070,7 +5467,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
@@ -7105,7 +5502,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
@@ -7142,7 +5539,7 @@
       </c>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
@@ -7180,7 +5577,7 @@
       <c r="P5" s="22"/>
       <c r="Q5" s="12"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
@@ -7225,7 +5622,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
@@ -7267,7 +5664,7 @@
       <c r="P7" s="22"/>
       <c r="Q7" s="12"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
@@ -7305,7 +5702,7 @@
       <c r="P8" s="22"/>
       <c r="Q8" s="12"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
@@ -7345,7 +5742,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
@@ -7389,7 +5786,7 @@
       <c r="P10" s="22"/>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>31</v>
       </c>
@@ -7439,7 +5836,7 @@
       <c r="P11" s="22"/>
       <c r="Q11" s="12"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
@@ -7495,7 +5892,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>33</v>
       </c>
@@ -7545,7 +5942,7 @@
       <c r="P13" s="22"/>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>34</v>
       </c>
@@ -7595,7 +5992,7 @@
       <c r="P14" s="22"/>
       <c r="Q14" s="12"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -7611,7 +6008,7 @@
       <c r="Q20" s="12"/>
       <c r="R20" s="8"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -7627,7 +6024,7 @@
       <c r="Q21" s="12"/>
       <c r="R21" s="8"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -7643,7 +6040,7 @@
       <c r="Q22" s="12"/>
       <c r="R22" s="8"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="G23" s="8"/>
       <c r="I23" s="8"/>
@@ -7652,7 +6049,7 @@
       <c r="L23" s="8"/>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -7663,7 +6060,7 @@
       <c r="L24" s="8"/>
       <c r="R24" s="12"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="G25" s="12"/>
       <c r="I25" s="12"/>
@@ -7672,20 +6069,20 @@
       <c r="P25" s="24"/>
       <c r="Q25" s="32"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -7709,48 +6106,48 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="49"/>
-    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="49"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="49" customWidth="1"/>
-    <col min="12" max="12" width="13.1796875" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="49" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" s="49" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="143" t="s">
+      <c r="C2" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="146" t="s">
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="145" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="148" t="s">
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="147" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="150" t="s">
+      <c r="L2" s="149" t="s">
         <v>90</v>
       </c>
       <c r="M2" s="27"/>
     </row>
-    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="58"/>
       <c r="C3" s="52"/>
       <c r="D3" s="42" t="s">
@@ -7772,11 +6169,11 @@
       <c r="J3" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="K3" s="149"/>
-      <c r="L3" s="151"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="150"/>
       <c r="M3" s="27"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
         <v>29</v>
       </c>
@@ -7806,7 +6203,7 @@
       </c>
       <c r="M4" s="27"/>
     </row>
-    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="38" t="s">
         <v>32</v>
       </c>
@@ -7839,8 +6236,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:13" s="49" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" s="49" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="44" t="s">
         <v>101</v>
       </c>
@@ -7858,7 +6255,7 @@
       <c r="J7" s="49"/>
       <c r="L7" s="27"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="36" t="s">
         <v>29</v>
       </c>
@@ -7875,7 +6272,7 @@
       <c r="I8" s="49"/>
       <c r="J8" s="49"/>
     </row>
-    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="38" t="s">
         <v>32</v>
       </c>
@@ -7892,12 +6289,12 @@
       <c r="I9" s="49"/>
       <c r="J9" s="49"/>
     </row>
-    <row r="10" spans="2:13" s="49" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" s="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
     </row>
-    <row r="12" spans="2:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="59"/>
       <c r="C12" s="59" t="s">
         <v>108</v>
@@ -7912,7 +6309,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="59" t="s">
         <v>29</v>
       </c>
@@ -7929,7 +6326,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="59" t="s">
         <v>32</v>
       </c>
@@ -7946,7 +6343,7 @@
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="36" t="s">
         <v>23</v>
       </c>
@@ -7976,7 +6373,7 @@
       </c>
       <c r="M17" s="27"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="36" t="s">
         <v>26</v>
       </c>
